--- a/ReportExport-2024-07-01_2024-07-31.xlsx
+++ b/ReportExport-2024-07-01_2024-07-31.xlsx
@@ -84,10 +84,10 @@
     <t xml:space="preserve">900:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date</t>
+    <t xml:space="preserve">Start Date 01.07.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date 31.07.2024</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -185,16 +185,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="191970"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -228,54 +218,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -289,8 +346,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -327,117 +384,111 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="19">
-        <v>45474</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="23">
-        <v>45504</v>
       </c>
     </row>
   </sheetData>

--- a/ReportExport-2024-07-01_2024-07-31.xlsx
+++ b/ReportExport-2024-07-01_2024-07-31.xlsx
@@ -13,9 +13,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Work Hour Log Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilona Panchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityAssets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesign page - Properties of objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyde Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting - improving Carp app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion about Table design, New Material UI (FundSup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQMessenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile page - work with dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care App - grid with buttons on the screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange - SSL screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research and Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design table (FundSup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESYDE PARKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care App screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material design UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarP - improving functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date 01.07.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date 31.07.2024</t>
   </si>
 </sst>
 </file>
@@ -23,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -33,6 +123,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color rgb="191970"/>
       <name val="Calibri"/>
@@ -53,6 +149,16 @@
       <b/>
       <sz val="13"/>
       <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -76,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
@@ -88,6 +194,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -102,24 +249,312 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="1.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="1.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="1.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45474</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45474</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45474</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45474</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17">
+        <v>45475</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19">
+        <v>45475</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21">
+        <v>45476</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23">
+        <v>45476</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="25">
+        <v>45476</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="27">
+        <v>45476</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="29">
+        <v>45477</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="31">
+        <v>45477</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="33">
+        <v>45477</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="35">
+        <v>45478</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="37">
+        <v>45478</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
